--- a/Supplementary materials/Supplementary material 2.xlsx
+++ b/Supplementary materials/Supplementary material 2.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmartin\Dropbox\CSC\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Documents\recherche\en_cours\projets_jam\jam_csc\git\csc.content.analysis\Supplementary materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8F162E-ED52-423B-BF8B-A8FC861388C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ordre" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -132,9 +144,6 @@
     <t>DSM3-R - 1987</t>
   </si>
   <si>
-    <t>CSWD</t>
-  </si>
-  <si>
     <t>DA</t>
   </si>
   <si>
@@ -154,12 +163,15 @@
   </si>
   <si>
     <t>TOTAL ICSD</t>
+  </si>
+  <si>
+    <t>CRSWD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,18 +621,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
@@ -869,7 +881,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>29</v>
@@ -913,10 +925,10 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="12"/>
@@ -1089,13 +1101,13 @@
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
       <c r="Q11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" t="s">
         <v>42</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>43</v>
-      </c>
-      <c r="S11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1239,7 +1251,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" ref="E14:P14" si="4">COUNTIF(E2:E10,"no")</f>
@@ -1304,7 +1316,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D15" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" ref="G15:P15" si="5">SUM(G12:G14)</f>
